--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -342,35 +342,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
